--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Downloads/Ratings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE027C3-8AC4-CF41-A9C3-A5F47E76D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2520AFFF-DF1E-BD47-BB0B-47A1DE7ED69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="1000" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Image</t>
   </si>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>images/adl-M-ver2.jpg</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>adolescent</t>
-  </si>
-  <si>
-    <t>images/adl-M-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver5.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver8.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F2AC7-C42F-6C4A-813B-CD292407E50B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +413,7 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,65 +423,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>-0.5</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>-0.5</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2520AFFF-DF1E-BD47-BB0B-47A1DE7ED69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA78B42-E778-5144-B610-1B3CF1C2120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="1000" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
+    <workbookView xWindow="12000" yWindow="940" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Image</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>images/adl-M-ver2.jpg</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>adolescent</t>
+  </si>
+  <si>
+    <t>images/adl-M-ver3.jpg</t>
+  </si>
+  <si>
+    <t>images/adl-F-ver5.jpg</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>images/adl-F-ver8.jpg</t>
   </si>
 </sst>
 </file>
@@ -402,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F2AC7-C42F-6C4A-813B-CD292407E50B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,11 +445,49 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA78B42-E778-5144-B610-1B3CF1C2120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9D8DA-15FD-C94E-BA7B-41FB80183EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="940" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
+    <workbookView xWindow="12000" yWindow="820" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,25 +45,25 @@
     <t>AgeGroup</t>
   </si>
   <si>
-    <t>images/adl-M-ver2.jpg</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>adolescent</t>
   </si>
   <si>
-    <t>images/adl-M-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver5.jpg</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>images/adl-F-ver8.jpg</t>
+    <t>Images/adl-M-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/adl-M-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/adl-F-ver5.jpg</t>
+  </si>
+  <si>
+    <t>Images/adl-F-ver8.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,35 +447,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,10 +483,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/face-attractiveness-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9D8DA-15FD-C94E-BA7B-41FB80183EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486238DA-E3D4-D24D-B1F1-0F7E3C08DA43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="820" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Image</t>
   </si>
@@ -42,28 +41,40 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Images/F-A-A.jpeg</t>
+  </si>
+  <si>
+    <t>images/F-A-C.jpeg</t>
+  </si>
+  <si>
+    <t>images/F-C-A.jpeg</t>
+  </si>
+  <si>
+    <t>Images/F-C-C.jpeg</t>
+  </si>
+  <si>
+    <t>images/M-A-C.jpeg</t>
+  </si>
+  <si>
+    <t>Images/M-C-A.jpeg</t>
+  </si>
+  <si>
+    <t>images/M-C-C.jpeg</t>
+  </si>
+  <si>
+    <t>images/M-A-A.jpeg</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>AgeGroup</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>adolescent</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Images/adl-M-ver2.jpg</t>
-  </si>
-  <si>
-    <t>Images/adl-M-ver3.jpg</t>
-  </si>
-  <si>
-    <t>Images/adl-F-ver5.jpg</t>
-  </si>
-  <si>
-    <t>Images/adl-F-ver8.jpg</t>
+    <t>Adult</t>
   </si>
 </sst>
 </file>
@@ -423,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F2AC7-C42F-6C4A-813B-CD292407E50B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,51 +453,95 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/face-attractiveness-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486238DA-E3D4-D24D-B1F1-0F7E3C08DA43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0A71C-AF6F-F243-B21D-2B6EF8712B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,16 @@
     <t>F</t>
   </si>
   <si>
-    <t>Images/F-A-A.jpeg</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>images/F-A-A.jpeg</t>
   </si>
   <si>
     <t>images/F-A-C.jpeg</t>
@@ -53,28 +62,19 @@
     <t>images/F-C-A.jpeg</t>
   </si>
   <si>
-    <t>Images/F-C-C.jpeg</t>
+    <t>images/F-C-C.jpeg</t>
+  </si>
+  <si>
+    <t>images/M-A-A.jpg</t>
   </si>
   <si>
     <t>images/M-A-C.jpeg</t>
   </si>
   <si>
-    <t>Images/M-C-A.jpeg</t>
+    <t>images/M-C-A.jpeg</t>
   </si>
   <si>
     <t>images/M-C-C.jpeg</t>
-  </si>
-  <si>
-    <t>images/M-A-A.jpeg</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>Adult</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F2AC7-C42F-6C4A-813B-CD292407E50B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,51 +453,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,43 +505,43 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/face-attractiveness-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0A71C-AF6F-F243-B21D-2B6EF8712B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11E86A8-19D5-AA4D-8962-6E8617885C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11E86A8-19D5-AA4D-8962-6E8617885C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7D65D-E0E4-A54B-B95F-5A07047F4D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -53,28 +53,28 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>images/F-A-A.jpeg</t>
-  </si>
-  <si>
-    <t>images/F-A-C.jpeg</t>
-  </si>
-  <si>
-    <t>images/F-C-A.jpeg</t>
-  </si>
-  <si>
-    <t>images/F-C-C.jpeg</t>
-  </si>
-  <si>
     <t>images/M-A-A.jpg</t>
   </si>
   <si>
-    <t>images/M-A-C.jpeg</t>
-  </si>
-  <si>
-    <t>images/M-C-A.jpeg</t>
-  </si>
-  <si>
-    <t>images/M-C-C.jpeg</t>
+    <t>images/F-A-A.jpg</t>
+  </si>
+  <si>
+    <t>images/F-A-C.jpg</t>
+  </si>
+  <si>
+    <t>images/F-C-A.jpg</t>
+  </si>
+  <si>
+    <t>images/F-C-C.jpg</t>
+  </si>
+  <si>
+    <t>images/M-A-C.jpg</t>
+  </si>
+  <si>
+    <t>images/M-C-A.jpg</t>
+  </si>
+  <si>
+    <t>images/M-C-C.jpg</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7D65D-E0E4-A54B-B95F-5A07047F4D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29137136-455B-DF49-8441-8D4C70A28D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -53,28 +53,28 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>images/M-A-A.jpg</t>
-  </si>
-  <si>
-    <t>images/F-A-A.jpg</t>
-  </si>
-  <si>
-    <t>images/F-A-C.jpg</t>
-  </si>
-  <si>
-    <t>images/F-C-A.jpg</t>
-  </si>
-  <si>
-    <t>images/F-C-C.jpg</t>
-  </si>
-  <si>
-    <t>images/M-A-C.jpg</t>
-  </si>
-  <si>
-    <t>images/M-C-A.jpg</t>
-  </si>
-  <si>
-    <t>images/M-C-C.jpg</t>
+    <t>Images/F-A-A.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-A-C.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-A.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-C.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-A.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-C.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-A.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-C.jpg</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29137136-455B-DF49-8441-8D4C70A28D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB33E0E-18BD-6242-8215-F18BB3EB0219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Image</t>
   </si>
@@ -41,40 +41,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>Images/F-A-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/F-A-C.jpg</t>
-  </si>
-  <si>
-    <t>Images/F-C-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/F-C-C.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-A-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-A-C.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-C-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-C-C.jpg</t>
   </si>
 </sst>
 </file>
@@ -434,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F2AC7-C42F-6C4A-813B-CD292407E50B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,96 +420,14 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Downloads/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB33E0E-18BD-6242-8215-F18BB3EB0219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE027C3-8AC4-CF41-A9C3-A5F47E76D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
+    <workbookView xWindow="12000" yWindow="1000" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Image</t>
   </si>
@@ -42,6 +43,30 @@
   </si>
   <si>
     <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>images/adl-M-ver2.jpg</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>adolescent</t>
+  </si>
+  <si>
+    <t>images/adl-M-ver3.jpg</t>
+  </si>
+  <si>
+    <t>images/adl-F-ver5.jpg</t>
+  </si>
+  <si>
+    <t>images/adl-F-ver8.jpg</t>
   </si>
 </sst>
 </file>
@@ -401,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F2AC7-C42F-6C4A-813B-CD292407E50B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,7 +437,7 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,12 +447,65 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>-0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrialCondition_B.xlsx
+++ b/TrialCondition_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Downloads/Ratings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE027C3-8AC4-CF41-A9C3-A5F47E76D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC42B9-746D-194F-83DC-650C24953A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="1000" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
+    <workbookView xWindow="12000" yWindow="820" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>images/adl-M-ver2.jpg</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -60,13 +57,16 @@
     <t>adolescent</t>
   </si>
   <si>
-    <t>images/adl-M-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver5.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver8.jpg</t>
+    <t>Images/adl-M-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/adl-M-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/adl-F-ver5.jpg</t>
+  </si>
+  <si>
+    <t>Images/adl-F-ver8.jpg</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,13 +453,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>-0.5</v>
@@ -470,10 +470,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -484,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -498,10 +498,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>-0.5</v>
